--- a/Data.xlsx
+++ b/Data.xlsx
@@ -16,139 +16,139 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
-    <t>HDI in 2001</t>
+    <t>IDH em 2001</t>
   </si>
   <si>
-    <t>HDI in 2002</t>
+    <t>IDH em 2002</t>
   </si>
   <si>
-    <t>HDI in 2003</t>
+    <t>IDH em 2003</t>
   </si>
   <si>
-    <t>HDI in 2004</t>
+    <t>IDH em 2004</t>
   </si>
   <si>
-    <t>HDI in 2005</t>
+    <t>IDH em 2005</t>
   </si>
   <si>
-    <t>HDI in 2006</t>
+    <t>IDH em 2006</t>
   </si>
   <si>
-    <t>HDI in 2007</t>
+    <t>IDH em 2007</t>
   </si>
   <si>
-    <t>HDI in 2008</t>
+    <t>IDH em 2008</t>
   </si>
   <si>
-    <t>HDI in 2009</t>
+    <t>IDH em 2009</t>
   </si>
   <si>
-    <t>HDI in 2010</t>
+    <t>IDH em 2010</t>
   </si>
   <si>
-    <t>HDI in 2011</t>
+    <t>IDH em 2011</t>
   </si>
   <si>
-    <t>HDI in 2012</t>
+    <t>IDH em 2012</t>
   </si>
   <si>
-    <t>HDI in 2013</t>
+    <t>IDH em 2013</t>
   </si>
   <si>
-    <t>HDI in 2014</t>
+    <t>IDH em 2014</t>
   </si>
   <si>
-    <t>HDI in 2015</t>
+    <t>IDH em 2015</t>
   </si>
   <si>
-    <t>Tech exports in 2001</t>
+    <t>Exportação de tecnologia em 2001</t>
   </si>
   <si>
-    <t>Tech exports in 2002</t>
+    <t>Exportação de tecnologia em 2002</t>
   </si>
   <si>
-    <t>Tech exports in 2003</t>
+    <t>Exportação de tecnologia em 2003</t>
   </si>
   <si>
-    <t>Tech exports in 2004</t>
+    <t>Exportação de tecnologia em 2004</t>
   </si>
   <si>
-    <t>Tech exports in 2005</t>
+    <t>Exportação de tecnologia em 2005</t>
   </si>
   <si>
-    <t>Tech exports in 2006</t>
+    <t>Exportação de tecnologia em 2006</t>
   </si>
   <si>
-    <t>Tech exports in 2007</t>
+    <t>Exportação de tecnologia em 2007</t>
   </si>
   <si>
-    <t>Tech exports in 2008</t>
+    <t>Exportação de tecnologia em 2008</t>
   </si>
   <si>
-    <t>Tech exports in 2009</t>
+    <t>Exportação de tecnologia em 2009</t>
   </si>
   <si>
-    <t>Tech exports in 2010</t>
+    <t>Exportação de tecnologia em 2010</t>
   </si>
   <si>
-    <t>Tech exports in 2011</t>
+    <t>Exportação de tecnologia em 2011</t>
   </si>
   <si>
-    <t>Tech exports in 2012</t>
+    <t>Exportação de tecnologia em 2012</t>
   </si>
   <si>
-    <t>Tech exports in 2013</t>
+    <t>Exportação de tecnologia em 2013</t>
   </si>
   <si>
-    <t>Tech exports in 2014</t>
+    <t>Exportação de tecnologia em 2014</t>
   </si>
   <si>
-    <t>Tech exports in 2015</t>
+    <t>Exportação de tecnologia em 2015</t>
   </si>
   <si>
-    <t>Internet users in 2001</t>
+    <t>Usuários de internet em 2001</t>
   </si>
   <si>
-    <t>Internet users in 2002</t>
+    <t>Usuários de internet em 2002</t>
   </si>
   <si>
-    <t>Internet users in 2003</t>
+    <t>Usuários de internet em 2003</t>
   </si>
   <si>
-    <t>Internet users in 2004</t>
+    <t>Usuários de internet em 2004</t>
   </si>
   <si>
-    <t>Internet users in 2005</t>
+    <t>Usuários de internet em 2005</t>
   </si>
   <si>
-    <t>Internet users in 2006</t>
+    <t>Usuários de internet em 2006</t>
   </si>
   <si>
-    <t>Internet users in 2007</t>
+    <t>Usuários de internet em 2007</t>
   </si>
   <si>
-    <t>Internet users in 2008</t>
+    <t>Usuários de internet em 2008</t>
   </si>
   <si>
-    <t>Internet users in 2009</t>
+    <t>Usuários de internet em 2009</t>
   </si>
   <si>
-    <t>Internet users in 2010</t>
+    <t>Usuários de internet em 2010</t>
   </si>
   <si>
-    <t>Internet users in 2011</t>
+    <t>Usuários de internet em 2011</t>
   </si>
   <si>
-    <t>Internet users in 2012</t>
+    <t>Usuários de internet em 2012</t>
   </si>
   <si>
-    <t>Internet users in 2013</t>
+    <t>Usuários de internet em 2013</t>
   </si>
   <si>
-    <t>Internet users in 2014</t>
+    <t>Usuários de internet em 2014</t>
   </si>
   <si>
-    <t>Internet users in 2015</t>
+    <t>Usuários de internet em 2015</t>
   </si>
   <si>
     <t>Country</t>
